--- a/Crawling/music/crawled_data/mod_genie/live_genie_20220422_110235.xlsx
+++ b/Crawling/music/crawled_data/mod_genie/live_genie_20220422_110235.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="272">
   <si>
     <t>사이트</t>
   </si>
@@ -782,6 +782,9 @@
   </si>
   <si>
     <t>개인</t>
+  </si>
+  <si>
+    <t>마크툽컴퍼니</t>
   </si>
   <si>
     <t>P NATION</t>
@@ -2405,6 +2408,12 @@
       <c r="F47" t="s">
         <v>198</v>
       </c>
+      <c r="G47" t="s">
+        <v>256</v>
+      </c>
+      <c r="H47" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" t="s">
@@ -2452,7 +2461,7 @@
         <v>200</v>
       </c>
       <c r="G49" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H49" t="s">
         <v>241</v>
@@ -2660,7 +2669,7 @@
         <v>207</v>
       </c>
       <c r="G57" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H57" t="s">
         <v>241</v>
@@ -2686,10 +2695,10 @@
         <v>208</v>
       </c>
       <c r="G58" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H58" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2790,10 +2799,10 @@
         <v>70</v>
       </c>
       <c r="G62" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H62" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2816,7 +2825,7 @@
         <v>71</v>
       </c>
       <c r="G63" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H63" t="s">
         <v>241</v>
@@ -2868,7 +2877,7 @@
         <v>73</v>
       </c>
       <c r="G65" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H65" t="s">
         <v>241</v>
@@ -2920,7 +2929,7 @@
         <v>75</v>
       </c>
       <c r="G67" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H67" t="s">
         <v>241</v>
@@ -2997,6 +3006,12 @@
       <c r="F70" t="s">
         <v>213</v>
       </c>
+      <c r="G70" t="s">
+        <v>256</v>
+      </c>
+      <c r="H70" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" t="s">
@@ -3018,7 +3033,7 @@
         <v>79</v>
       </c>
       <c r="G71" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H71" t="s">
         <v>241</v>
@@ -3044,7 +3059,7 @@
         <v>214</v>
       </c>
       <c r="G72" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H72" t="s">
         <v>241</v>
@@ -3069,6 +3084,12 @@
       <c r="F73" t="s">
         <v>81</v>
       </c>
+      <c r="G73" t="s">
+        <v>245</v>
+      </c>
+      <c r="H73" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" t="s">
@@ -3142,7 +3163,7 @@
         <v>217</v>
       </c>
       <c r="G76" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H76" t="s">
         <v>241</v>
@@ -3246,7 +3267,7 @@
         <v>88</v>
       </c>
       <c r="G80" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H80" t="s">
         <v>241</v>
@@ -3298,10 +3319,10 @@
         <v>221</v>
       </c>
       <c r="G82" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H82" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3402,7 +3423,7 @@
         <v>224</v>
       </c>
       <c r="G86" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H86" t="s">
         <v>241</v>
@@ -3454,10 +3475,10 @@
         <v>96</v>
       </c>
       <c r="G88" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H88" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3506,7 +3527,7 @@
         <v>227</v>
       </c>
       <c r="G90" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H90" t="s">
         <v>241</v>
@@ -3558,7 +3579,7 @@
         <v>228</v>
       </c>
       <c r="G92" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H92" t="s">
         <v>241</v>
@@ -3584,7 +3605,7 @@
         <v>101</v>
       </c>
       <c r="G93" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H93" t="s">
         <v>241</v>
@@ -3636,7 +3657,7 @@
         <v>103</v>
       </c>
       <c r="G95" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H95" t="s">
         <v>241</v>
@@ -3792,7 +3813,7 @@
         <v>109</v>
       </c>
       <c r="G101" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H101" t="s">
         <v>241</v>

--- a/Crawling/music/crawled_data/mod_genie/live_genie_20220422_110235.xlsx
+++ b/Crawling/music/crawled_data/mod_genie/live_genie_20220422_110235.xlsx
@@ -40,7 +40,7 @@
     <t>소속사_분류</t>
   </si>
   <si>
-    <t>genie</t>
+    <t>Genie</t>
   </si>
   <si>
     <t>2022-04-22</t>

--- a/Crawling/music/crawled_data/mod_genie/live_genie_20220422_110235.xlsx
+++ b/Crawling/music/crawled_data/mod_genie/live_genie_20220422_110235.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="271">
   <si>
     <t>사이트</t>
   </si>
@@ -779,9 +779,6 @@
   </si>
   <si>
     <t>HIGH UP</t>
-  </si>
-  <si>
-    <t>개인</t>
   </si>
   <si>
     <t>마크툽컴퍼니</t>
@@ -2279,7 +2276,7 @@
         <v>50</v>
       </c>
       <c r="G42" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="H42" t="s">
         <v>241</v>
@@ -2409,7 +2406,7 @@
         <v>198</v>
       </c>
       <c r="G47" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H47" t="s">
         <v>241</v>
@@ -2435,7 +2432,7 @@
         <v>199</v>
       </c>
       <c r="G48" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="H48" t="s">
         <v>241</v>
@@ -2461,7 +2458,7 @@
         <v>200</v>
       </c>
       <c r="G49" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H49" t="s">
         <v>241</v>
@@ -2669,7 +2666,7 @@
         <v>207</v>
       </c>
       <c r="G57" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H57" t="s">
         <v>241</v>
@@ -2695,10 +2692,10 @@
         <v>208</v>
       </c>
       <c r="G58" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H58" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2799,10 +2796,10 @@
         <v>70</v>
       </c>
       <c r="G62" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H62" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2825,7 +2822,7 @@
         <v>71</v>
       </c>
       <c r="G63" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H63" t="s">
         <v>241</v>
@@ -2877,7 +2874,7 @@
         <v>73</v>
       </c>
       <c r="G65" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H65" t="s">
         <v>241</v>
@@ -2903,7 +2900,7 @@
         <v>211</v>
       </c>
       <c r="G66" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="H66" t="s">
         <v>241</v>
@@ -2929,7 +2926,7 @@
         <v>75</v>
       </c>
       <c r="G67" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H67" t="s">
         <v>241</v>
@@ -3007,7 +3004,7 @@
         <v>213</v>
       </c>
       <c r="G70" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H70" t="s">
         <v>241</v>
@@ -3033,7 +3030,7 @@
         <v>79</v>
       </c>
       <c r="G71" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H71" t="s">
         <v>241</v>
@@ -3059,7 +3056,7 @@
         <v>214</v>
       </c>
       <c r="G72" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H72" t="s">
         <v>241</v>
@@ -3163,7 +3160,7 @@
         <v>217</v>
       </c>
       <c r="G76" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H76" t="s">
         <v>241</v>
@@ -3267,7 +3264,7 @@
         <v>88</v>
       </c>
       <c r="G80" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H80" t="s">
         <v>241</v>
@@ -3293,7 +3290,7 @@
         <v>193</v>
       </c>
       <c r="G81" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="H81" t="s">
         <v>241</v>
@@ -3319,10 +3316,10 @@
         <v>221</v>
       </c>
       <c r="G82" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H82" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3423,7 +3420,7 @@
         <v>224</v>
       </c>
       <c r="G86" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H86" t="s">
         <v>241</v>
@@ -3475,10 +3472,10 @@
         <v>96</v>
       </c>
       <c r="G88" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H88" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3527,7 +3524,7 @@
         <v>227</v>
       </c>
       <c r="G90" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H90" t="s">
         <v>241</v>
@@ -3579,7 +3576,7 @@
         <v>228</v>
       </c>
       <c r="G92" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H92" t="s">
         <v>241</v>
@@ -3605,7 +3602,7 @@
         <v>101</v>
       </c>
       <c r="G93" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H93" t="s">
         <v>241</v>
@@ -3657,7 +3654,7 @@
         <v>103</v>
       </c>
       <c r="G95" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H95" t="s">
         <v>241</v>
@@ -3813,7 +3810,7 @@
         <v>109</v>
       </c>
       <c r="G101" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H101" t="s">
         <v>241</v>
